--- a/angle_calculator.xlsx
+++ b/angle_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zymi\Documents\GitHub\Magisterka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D008E58-3007-4849-9F9F-13B49D67C384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDC408-2D6C-42F3-BEEF-334240490F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18615" windowHeight="21600" xr2:uid="{DFFFD8FD-3FB1-4B76-9832-5FADB95B7C6A}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{DFFFD8FD-3FB1-4B76-9832-5FADB95B7C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -13280,8 +13280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647645AE-9AC7-4AE8-BB8B-339294A3ACA7}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14274,8 +14274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37067286-E7F8-4C0F-AB3B-2D7CCAFDC4B2}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/angle_calculator.xlsx
+++ b/angle_calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zymi\Documents\GitHub\Magisterka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDC408-2D6C-42F3-BEEF-334240490F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C05593-3DA2-4BC7-9874-15DA2F5A9FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5235" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{DFFFD8FD-3FB1-4B76-9832-5FADB95B7C6A}"/>
   </bookViews>
@@ -3386,7 +3386,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.785368015952216</c:v>
+                  <c:v>16.785107215683855</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3399,7 +3399,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51.131277904486794</c:v>
+                  <c:v>51.130263332881064</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3522,7 +3522,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.784422209223983</c:v>
+                  <c:v>16.784539270325549</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -3535,7 +3535,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51.126132715885205</c:v>
+                  <c:v>51.127173710131892</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -13278,10 +13278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647645AE-9AC7-4AE8-BB8B-339294A3ACA7}">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:F47"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14138,30 +14138,30 @@
       </c>
       <c r="B64" s="4">
         <f>B55+G71*(B63-B55)-G72*(C63-C55)</f>
-        <v>16.785368015952216</v>
+        <v>16.785107215683855</v>
       </c>
       <c r="C64" s="4">
         <f>C55+G72*(B63-B55)+G71*(C63-C55)</f>
-        <v>51.131277904486794</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51.130263332881064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="4">
         <f>B55+G73*(B63-B55)-G74*(C63-C55)</f>
-        <v>16.784422209223983</v>
+        <v>16.784539270325549</v>
       </c>
       <c r="C65" s="4">
         <f>C55+G74*(B63-B55)+G73*(C63-C55)</f>
-        <v>51.126132715885205</v>
+        <v>51.127173710131892</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -14174,40 +14174,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="1">
         <f>SQRT((B64-$B$57)^2+(C64-$C$57)^2)</f>
-        <v>2.1123129611889105E-3</v>
+        <v>3.1544952019347044E-3</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="1">
         <f>SQRT((B65-$B$57)^2+(C65-$C$57)^2)</f>
-        <v>7.3415089144568324E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.2957513297432792E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="2">
         <f>COS(RADIANS(G69))</f>
-        <v>0.99619469809174555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.99862953475457383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>77</v>
       </c>
@@ -14223,10 +14223,10 @@
       </c>
       <c r="G72" s="2">
         <f>SIN(RADIANS(G69))</f>
-        <v>-8.7155742747658166E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.2335956242943835E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -14242,16 +14242,29 @@
       </c>
       <c r="G73" s="2">
         <f>COS(RADIANS(-G69))</f>
-        <v>0.99619469809174555</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.99862953475457383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="2">
         <f>SIN(RADIANS(-G69))</f>
-        <v>8.7155742747658166E-2</v>
+        <v>5.2335956242943835E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H78" s="1">
+        <f>TAN(RADIANS(-G69))</f>
+        <v>5.240777928304121E-2</v>
+      </c>
+      <c r="I78" s="1">
+        <f>G78*H78</f>
+        <v>0.24107578470198954</v>
       </c>
     </row>
   </sheetData>
@@ -14275,7 +14288,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56:I57"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
